--- a/config_12.22/fish_yutu_random_2.xlsx
+++ b/config_12.22/fish_yutu_random_2.xlsx
@@ -310,7 +310,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,8 +380,15 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,6 +410,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,7 +450,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -482,6 +495,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1165,7 +1181,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="K23" sqref="K23:L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1578,11 +1594,11 @@
         <v>1</v>
       </c>
       <c r="F17" s="18"/>
-      <c r="G17" s="17">
-        <v>1607990400</v>
-      </c>
-      <c r="H17" s="17">
-        <v>1608566399</v>
+      <c r="G17" s="19">
+        <v>1608595200</v>
+      </c>
+      <c r="H17" s="19">
+        <v>1609171199</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1602,11 +1618,11 @@
         <v>1</v>
       </c>
       <c r="F18" s="18"/>
-      <c r="G18" s="17">
-        <v>1607990400</v>
-      </c>
-      <c r="H18" s="17">
-        <v>1608566399</v>
+      <c r="G18" s="19">
+        <v>1608595200</v>
+      </c>
+      <c r="H18" s="19">
+        <v>1609171199</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1626,11 +1642,11 @@
         <v>1</v>
       </c>
       <c r="F19" s="18"/>
-      <c r="G19" s="17">
-        <v>1607990400</v>
-      </c>
-      <c r="H19" s="17">
-        <v>1608566399</v>
+      <c r="G19" s="19">
+        <v>1608595200</v>
+      </c>
+      <c r="H19" s="19">
+        <v>1609171199</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1650,11 +1666,11 @@
         <v>5</v>
       </c>
       <c r="F20" s="18"/>
-      <c r="G20" s="17">
-        <v>1607990400</v>
-      </c>
-      <c r="H20" s="17">
-        <v>1608566399</v>
+      <c r="G20" s="19">
+        <v>1608595200</v>
+      </c>
+      <c r="H20" s="19">
+        <v>1609171199</v>
       </c>
     </row>
   </sheetData>
